--- a/Combo/UseListed.xlsx
+++ b/Combo/UseListed.xlsx
@@ -1,21 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire\GSRs\Combo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairemoore-cantwell/GitHub/GSR_Learning/Combo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CADE39-3041-41CD-B380-F397851FB2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2144A00-2C23-0348-ADED-FD8BE7797C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="90" windowWidth="24570" windowHeight="21570" xr2:uid="{C71280F5-7DBC-4C24-95AC-02E4F36B038E}"/>
+    <workbookView xWindow="7500" yWindow="460" windowWidth="26920" windowHeight="17540" activeTab="2" xr2:uid="{C71280F5-7DBC-4C24-95AC-02E4F36B038E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tagalog" sheetId="1" r:id="rId1"/>
+    <sheet name="LessListing" sheetId="2" r:id="rId2"/>
+    <sheet name="NoListing" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Tagalog!$E$4:$J$4</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Tagalog!$T$26</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +53,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="62">
   <si>
     <t>input</t>
   </si>
@@ -208,12 +240,24 @@
   <si>
     <t>the program will create it itself</t>
   </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>p_listed:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +281,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4" tint="0.249977111117893"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Gill Sans MT"/>
@@ -329,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -439,6 +499,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -729,70 +814,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8924EE5-736F-4A02-BD38-2BDE280E4D14}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="26720" ySplit="1980" topLeftCell="L13"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:L21"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="26" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="26" customWidth="1"/>
     <col min="7" max="7" width="9" style="26"/>
-    <col min="8" max="8" width="11.25" style="26" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="9" style="26"/>
-    <col min="10" max="11" width="9.25" style="26" customWidth="1"/>
+    <col min="10" max="11" width="9.1640625" style="26" customWidth="1"/>
     <col min="12" max="13" width="9" style="26"/>
-    <col min="14" max="14" width="8.125" customWidth="1"/>
-    <col min="15" max="15" width="3.375" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E1" s="26" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="26">
         <f>(F4-F2)*SQRT(2)/$D$2^2</f>
-        <v>0.1414213562373095</v>
+        <v>6.9996187544702493E-2</v>
       </c>
       <c r="G1" s="26">
         <f t="shared" ref="G1:L1" si="0">(G4-G2)*SQRT(2)/$D$2^2</f>
-        <v>9.899494936611665E-2</v>
+        <v>0</v>
       </c>
       <c r="H1" s="26">
         <f t="shared" si="0"/>
-        <v>0.12727922061357858</v>
+        <v>0</v>
       </c>
       <c r="I1" s="26">
         <f t="shared" si="0"/>
-        <v>2.8284271247461901E-2</v>
+        <v>0</v>
       </c>
       <c r="J1" s="26">
         <f t="shared" si="0"/>
-        <v>0.1414213562373095</v>
+        <v>7.5661290421233096E-2</v>
       </c>
       <c r="K1" s="26">
         <f t="shared" ref="K1" si="1">(K4-K2)*SQRT(2)/$D$2^2</f>
-        <v>0.1414213562373095</v>
+        <v>0</v>
       </c>
       <c r="L1" s="26">
         <f t="shared" si="0"/>
-        <v>0.28284271247461901</v>
+        <v>7.5661290421233096E-2</v>
       </c>
       <c r="M1" s="26">
         <f t="shared" ref="M1" si="2">(M4-M2)*SQRT(2)/$D$2^2</f>
-        <v>0.21213203435596426</v>
+        <v>7.5693574502618155E-2</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>35</v>
       </c>
@@ -827,75 +918,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E3" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="26">
         <f>(F4-F2)^2/2/$D$2</f>
-        <v>5</v>
+        <v>1.2248665676982911</v>
       </c>
       <c r="G3" s="26">
         <f t="shared" ref="G3:L3" si="3">(G4-G2)^2/2/$D$2</f>
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="H3" s="26">
         <f t="shared" si="3"/>
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="I3" s="26">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="26">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1.4311577170515444</v>
       </c>
       <c r="K3" s="26">
         <f t="shared" ref="K3" si="4">(K4-K2)^2/2/$D$2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3" s="26">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>1.4311577170515444</v>
       </c>
       <c r="M3" s="26">
         <f t="shared" ref="M3" si="5">(M4-M2)^2/2/$D$2</f>
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.4323793052458513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>5.3523439823050447</v>
+      </c>
       <c r="F4" s="3">
-        <v>10</v>
+        <v>4.9494778870064486</v>
       </c>
       <c r="G4" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>10</v>
+        <v>5.3500611530178688</v>
       </c>
       <c r="K4" s="3">
-        <v>10</v>
+        <f>I4</f>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>20</v>
+        <f>J4</f>
+        <v>5.3500611530178688</v>
       </c>
       <c r="M4" s="24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+        <f>E4</f>
+        <v>5.3523439823050447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +1035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -962,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="29">
         <v>1</v>
@@ -983,7 +1079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1025,7 +1121,7 @@
       </c>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1048,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="29">
         <v>0</v>
@@ -1067,7 +1163,7 @@
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="31">
         <v>1</v>
@@ -1109,7 +1205,7 @@
       </c>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1151,7 +1247,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="31">
         <v>0</v>
@@ -1193,7 +1289,7 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1331,7 @@
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -1277,7 +1373,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1415,7 @@
       </c>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -1361,7 +1457,7 @@
       </c>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1403,7 +1499,7 @@
       </c>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +1541,7 @@
       </c>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
@@ -1487,7 +1583,7 @@
       </c>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -1529,7 +1625,7 @@
       </c>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1564,14 +1660,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="40">
         <v>0</v>
       </c>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -1613,18 +1709,26 @@
       </c>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R26" t="s">
+        <v>58</v>
+      </c>
+      <c r="S26">
+        <f>SUMPRODUCT(R27:R42,D27:D42)</f>
+        <v>-5.6720715916673152E-2</v>
+      </c>
+      <c r="T26">
+        <f>S26-T28</f>
+        <v>-0.35373305880646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -1666,18 +1770,26 @@
       </c>
       <c r="N27" s="5">
         <f>-SUMPRODUCT(F27:M27,F$4:M$4)</f>
-        <v>-33</v>
+        <v>-5.3523439823050447</v>
       </c>
       <c r="O27" s="12">
         <f>EXP(N27)</f>
-        <v>4.6588861451033977E-15</v>
+        <v>4.7370344510732337E-3</v>
       </c>
       <c r="P27" s="19">
-        <f>O27/SUMIF(A:A,A27,O:O)</f>
-        <v>4.0654090781868053E-8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" ref="P27:P42" si="6">O27/SUMIF(A:A,A27,O:O)</f>
+        <v>4.6595550620388438E-3</v>
+      </c>
+      <c r="Q27" s="54">
+        <f>SUM(P27,P44)</f>
+        <v>0.98830345931592578</v>
+      </c>
+      <c r="R27">
+        <f>LN(Q27)</f>
+        <v>-1.1765483337050827E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -1718,19 +1830,34 @@
         <v>1</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" ref="N28:N42" si="6">-SUMPRODUCT(F28:M28,F$4:M$4)</f>
-        <v>-27</v>
+        <f t="shared" ref="N28:N42" si="7">-SUMPRODUCT(F28:M28,F$4:M$4)</f>
+        <v>-10.702405135322913</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" ref="O28:O42" si="7">EXP(N28)</f>
-        <v>1.8795288165390832E-12</v>
+        <f t="shared" ref="O28:O42" si="8">EXP(N28)</f>
+        <v>2.2490779442017741E-5</v>
       </c>
       <c r="P28" s="5">
-        <f>O28/SUMIF(A:A,A28,O:O)</f>
-        <v>1.6401030794673151E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>2.2122918100059389E-5</v>
+      </c>
+      <c r="Q28" s="53">
+        <f t="shared" ref="Q28:Q42" si="9">SUM(P28,P45)</f>
+        <v>4.692327099335673E-3</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ref="R28:R42" si="10">LN(Q28)</f>
+        <v>-5.3618266363549196</v>
+      </c>
+      <c r="S28" t="s">
+        <v>59</v>
+      </c>
+      <c r="T28">
+        <f>SUM(F1:M1)</f>
+        <v>0.29701234288978684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
@@ -1771,19 +1898,34 @@
         <v>1</v>
       </c>
       <c r="N29" s="5">
+        <f t="shared" si="7"/>
+        <v>-10.301821869311492</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="8"/>
+        <v>3.3571875865483332E-5</v>
+      </c>
+      <c r="P29" s="5">
         <f t="shared" si="6"/>
-        <v>-41</v>
-      </c>
-      <c r="O29" s="12">
-        <f t="shared" si="7"/>
-        <v>1.5628821893349888E-18</v>
-      </c>
-      <c r="P29" s="5">
-        <f>O29/SUMIF(A:A,A29,O:O)</f>
-        <v>1.363792812867274E-11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.3022771049450867E-5</v>
+      </c>
+      <c r="Q29" s="53">
+        <f t="shared" si="9"/>
+        <v>7.0042135847386182E-3</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="10"/>
+        <v>-4.9612433703434995</v>
+      </c>
+      <c r="S29" t="s">
+        <v>60</v>
+      </c>
+      <c r="T29">
+        <f>SUM(F3:M3)</f>
+        <v>5.5195613070472316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -1824,19 +1966,27 @@
         <v>1</v>
       </c>
       <c r="N30" s="4">
+        <f t="shared" si="7"/>
+        <v>-5.3523439823050447</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" si="8"/>
+        <v>4.7370344510732337E-3</v>
+      </c>
+      <c r="P30" s="4">
         <f t="shared" si="6"/>
-        <v>-33</v>
-      </c>
-      <c r="O30" s="13">
-        <f t="shared" si="7"/>
-        <v>4.6588861451033977E-15</v>
-      </c>
-      <c r="P30" s="4">
-        <f>O30/SUMIF(A:A,A30,O:O)</f>
-        <v>4.6588861450946177E-15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.6921093510706681E-3</v>
+      </c>
+      <c r="Q30" s="53">
+        <f t="shared" si="9"/>
+        <v>9.3949422221123527E-3</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="10"/>
+        <v>-4.6675837959906108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -1877,19 +2027,27 @@
         <v>1</v>
       </c>
       <c r="N31" s="4">
+        <f t="shared" si="7"/>
+        <v>-10.702405135322913</v>
+      </c>
+      <c r="O31" s="13">
+        <f t="shared" si="8"/>
+        <v>2.2490779442017741E-5</v>
+      </c>
+      <c r="P31" s="18">
         <f t="shared" si="6"/>
-        <v>-27</v>
-      </c>
-      <c r="O31" s="13">
-        <f t="shared" si="7"/>
-        <v>1.8795288165390832E-12</v>
-      </c>
-      <c r="P31" s="18">
-        <f>O31/SUMIF(A:A,A31,O:O)</f>
-        <v>1.8795288165355415E-12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2.2277481327764135E-5</v>
+      </c>
+      <c r="Q31" s="54">
+        <f t="shared" si="9"/>
+        <v>0.99053847480550239</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="10"/>
+        <v>-9.5065697761235624E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1930,19 +2088,27 @@
         <v>1</v>
       </c>
       <c r="N32" s="4">
+        <f t="shared" si="7"/>
+        <v>-10.301821869311492</v>
+      </c>
+      <c r="O32" s="13">
+        <f t="shared" si="8"/>
+        <v>3.3571875865483332E-5</v>
+      </c>
+      <c r="P32" s="4">
         <f t="shared" si="6"/>
-        <v>-41</v>
-      </c>
-      <c r="O32" s="13">
-        <f t="shared" si="7"/>
-        <v>1.5628821893349888E-18</v>
-      </c>
-      <c r="P32" s="4">
-        <f>O32/SUMIF(A:A,A32,O:O)</f>
-        <v>1.5628821893320435E-18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.3253486819317783E-5</v>
+      </c>
+      <c r="Q32" s="53">
+        <f t="shared" si="9"/>
+        <v>6.6582972385325343E-5</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="10"/>
+        <v>-9.6170616829970594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>40</v>
       </c>
@@ -1983,19 +2149,27 @@
         <v>1</v>
       </c>
       <c r="N33" s="9">
+        <f t="shared" si="7"/>
+        <v>-5.3523439823050447</v>
+      </c>
+      <c r="O33" s="14">
+        <f t="shared" si="8"/>
+        <v>4.7370344510732337E-3</v>
+      </c>
+      <c r="P33" s="20">
         <f t="shared" si="6"/>
-        <v>-26</v>
-      </c>
-      <c r="O33" s="14">
-        <f t="shared" si="7"/>
-        <v>5.1090890280633251E-12</v>
-      </c>
-      <c r="P33" s="20">
-        <f>O33/SUMIF(A:A,A33,O:O)</f>
-        <v>4.1398683329144788E-8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.6595550620388438E-3</v>
+      </c>
+      <c r="Q33" s="54">
+        <f t="shared" si="9"/>
+        <v>0.98830345931592578</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="10"/>
+        <v>-1.1765483337050827E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
@@ -2036,19 +2210,27 @@
         <v>1</v>
       </c>
       <c r="N34" s="9">
+        <f t="shared" si="7"/>
+        <v>-10.702405135322913</v>
+      </c>
+      <c r="O34" s="14">
+        <f t="shared" si="8"/>
+        <v>2.2490779442017741E-5</v>
+      </c>
+      <c r="P34" s="9">
         <f t="shared" si="6"/>
-        <v>-27</v>
-      </c>
-      <c r="O34" s="14">
-        <f t="shared" si="7"/>
-        <v>1.8795288165390832E-12</v>
-      </c>
-      <c r="P34" s="9">
-        <f>O34/SUMIF(A:A,A34,O:O)</f>
-        <v>1.5229724488359287E-8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2.2122918100059389E-5</v>
+      </c>
+      <c r="Q34" s="53">
+        <f t="shared" si="9"/>
+        <v>4.692327099335673E-3</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="10"/>
+        <v>-5.3618266363549196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>40</v>
       </c>
@@ -2089,19 +2271,27 @@
         <v>1</v>
       </c>
       <c r="N35" s="9">
+        <f t="shared" si="7"/>
+        <v>-10.301821869311492</v>
+      </c>
+      <c r="O35" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3571875865483332E-5</v>
+      </c>
+      <c r="P35" s="9">
         <f t="shared" si="6"/>
-        <v>-34</v>
-      </c>
-      <c r="O35" s="14">
-        <f t="shared" si="7"/>
-        <v>1.713908431542013E-15</v>
-      </c>
-      <c r="P35" s="9">
-        <f>O35/SUMIF(A:A,A35,O:O)</f>
-        <v>1.3887711101298818E-11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.3022771049450867E-5</v>
+      </c>
+      <c r="Q35" s="53">
+        <f t="shared" si="9"/>
+        <v>7.0042135847386182E-3</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="10"/>
+        <v>-4.9612433703434995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>41</v>
       </c>
@@ -2142,19 +2332,27 @@
         <v>1</v>
       </c>
       <c r="N36" s="6">
+        <f t="shared" si="7"/>
+        <v>-5.3523439823050447</v>
+      </c>
+      <c r="O36" s="15">
+        <f t="shared" si="8"/>
+        <v>4.7370344510732337E-3</v>
+      </c>
+      <c r="P36" s="6">
         <f t="shared" si="6"/>
-        <v>-26</v>
-      </c>
-      <c r="O36" s="15">
-        <f t="shared" si="7"/>
-        <v>5.1090890280633251E-12</v>
-      </c>
-      <c r="P36" s="6">
-        <f>O36/SUMIF(A:A,A36,O:O)</f>
-        <v>5.1090890280263112E-12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.6921093510706681E-3</v>
+      </c>
+      <c r="Q36" s="53">
+        <f t="shared" si="9"/>
+        <v>9.3949422221123527E-3</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="10"/>
+        <v>-4.6675837959906108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>41</v>
       </c>
@@ -2195,19 +2393,27 @@
         <v>1</v>
       </c>
       <c r="N37" s="6">
+        <f t="shared" si="7"/>
+        <v>-10.702405135322913</v>
+      </c>
+      <c r="O37" s="15">
+        <f t="shared" si="8"/>
+        <v>2.2490779442017741E-5</v>
+      </c>
+      <c r="P37" s="21">
         <f t="shared" si="6"/>
-        <v>-27</v>
-      </c>
-      <c r="O37" s="15">
-        <f t="shared" si="7"/>
-        <v>1.8795288165390832E-12</v>
-      </c>
-      <c r="P37" s="21">
-        <f>O37/SUMIF(A:A,A37,O:O)</f>
-        <v>1.8795288165254667E-12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2.2277481327764135E-5</v>
+      </c>
+      <c r="Q37" s="54">
+        <f t="shared" si="9"/>
+        <v>0.99053847480550239</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="10"/>
+        <v>-9.5065697761235624E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
@@ -2248,19 +2454,27 @@
         <v>1</v>
       </c>
       <c r="N38" s="6">
+        <f t="shared" si="7"/>
+        <v>-10.301821869311492</v>
+      </c>
+      <c r="O38" s="15">
+        <f t="shared" si="8"/>
+        <v>3.3571875865483332E-5</v>
+      </c>
+      <c r="P38" s="6">
         <f t="shared" si="6"/>
-        <v>-34</v>
-      </c>
-      <c r="O38" s="15">
-        <f t="shared" si="7"/>
-        <v>1.713908431542013E-15</v>
-      </c>
-      <c r="P38" s="6">
-        <f>O38/SUMIF(A:A,A38,O:O)</f>
-        <v>1.7139084315295963E-15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.3253486819317783E-5</v>
+      </c>
+      <c r="Q38" s="53">
+        <f t="shared" si="9"/>
+        <v>6.6582972385325343E-5</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="10"/>
+        <v>-9.6170616829970594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
@@ -2301,19 +2515,27 @@
         <v>1</v>
       </c>
       <c r="N39" s="7">
+        <f t="shared" si="7"/>
+        <v>-5.3523439823050447</v>
+      </c>
+      <c r="O39" s="16">
+        <f t="shared" si="8"/>
+        <v>4.7370344510732337E-3</v>
+      </c>
+      <c r="P39" s="22">
         <f t="shared" si="6"/>
-        <v>-15</v>
-      </c>
-      <c r="O39" s="16">
-        <f t="shared" si="7"/>
-        <v>3.0590232050182579E-7</v>
-      </c>
-      <c r="P39" s="22">
-        <f>O39/SUMIF(A:A,A39,O:O)</f>
-        <v>3.0590222629086506E-7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.6924217864608968E-3</v>
+      </c>
+      <c r="Q39" s="54">
+        <f t="shared" si="9"/>
+        <v>0.99527457501478933</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="10"/>
+        <v>-4.7366251033306994E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>42</v>
       </c>
@@ -2354,19 +2576,27 @@
         <v>1</v>
       </c>
       <c r="N40" s="7">
+        <f t="shared" si="7"/>
+        <v>-10.702405135322913</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" si="8"/>
+        <v>2.2490779442017741E-5</v>
+      </c>
+      <c r="P40" s="7">
         <f t="shared" si="6"/>
-        <v>-25</v>
-      </c>
-      <c r="O40" s="16">
-        <f t="shared" si="7"/>
-        <v>1.3887943864964021E-11</v>
-      </c>
-      <c r="P40" s="7">
-        <f>O40/SUMIF(A:A,A40,O:O)</f>
-        <v>1.3887939587793022E-11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2.2278964727457356E-5</v>
+      </c>
+      <c r="Q40" s="53">
+        <f t="shared" si="9"/>
+        <v>4.7254249852107487E-3</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="10"/>
+        <v>-5.3547977781211999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>43</v>
       </c>
@@ -2407,19 +2637,27 @@
         <v>1</v>
       </c>
       <c r="N41" s="8">
+        <f t="shared" si="7"/>
+        <v>-5.3523439823050447</v>
+      </c>
+      <c r="O41" s="17">
+        <f t="shared" si="8"/>
+        <v>4.7370344510732337E-3</v>
+      </c>
+      <c r="P41" s="8">
         <f t="shared" si="6"/>
-        <v>-15</v>
-      </c>
-      <c r="O41" s="17">
-        <f t="shared" si="7"/>
-        <v>3.0590232050182579E-7</v>
-      </c>
-      <c r="P41" s="8">
-        <f>O41/SUMIF(A:A,A41,O:O)</f>
-        <v>3.0590222629086506E-7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.6924217864608968E-3</v>
+      </c>
+      <c r="Q41" s="53">
+        <f t="shared" si="9"/>
+        <v>9.3955678069441891E-3</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="10"/>
+        <v>-4.6675172108014804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>43</v>
       </c>
@@ -2460,24 +2698,32 @@
         <v>1</v>
       </c>
       <c r="N42" s="8">
+        <f t="shared" si="7"/>
+        <v>-10.702405135322913</v>
+      </c>
+      <c r="O42" s="17">
+        <f t="shared" si="8"/>
+        <v>2.2490779442017741E-5</v>
+      </c>
+      <c r="P42" s="23">
         <f t="shared" si="6"/>
-        <v>-25</v>
-      </c>
-      <c r="O42" s="17">
-        <f t="shared" si="7"/>
-        <v>1.3887943864964021E-11</v>
-      </c>
-      <c r="P42" s="23">
-        <f>O42/SUMIF(A:A,A42,O:O)</f>
-        <v>1.3887939587793022E-11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2.2278964727457356E-5</v>
+      </c>
+      <c r="Q42" s="54">
+        <f t="shared" si="9"/>
+        <v>0.99060443219305594</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="10"/>
+        <v>-9.4399845869936726E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
@@ -2519,18 +2765,18 @@
       </c>
       <c r="N44" s="5">
         <f>-SUMPRODUCT(F44:M44,F$4:M$4)</f>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="O44" s="12">
         <f>EXP(N44)</f>
-        <v>1.1253517471925912E-7</v>
+        <v>1</v>
       </c>
       <c r="P44" s="19">
-        <f>O44/SUMIF(A:A,A44,O:O)</f>
-        <v>0.98199764207558382</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" ref="P44:P59" si="11">O44/SUMIF(A:A,A44,O:O)</f>
+        <v>0.98364390425388692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>38</v>
       </c>
@@ -2571,19 +2817,26 @@
         <v>0</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" ref="N45:N59" si="8">-SUMPRODUCT(F45:M45,F$4:M$4)</f>
-        <v>-20</v>
+        <f t="shared" ref="N45:N59" si="12">-SUMPRODUCT(F45:M45,F$4:M$4)</f>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O45" s="12">
-        <f t="shared" ref="O45:O59" si="9">EXP(N45)</f>
-        <v>2.0611536224385579E-9</v>
+        <f t="shared" ref="O45:O59" si="13">EXP(N45)</f>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P45" s="5">
-        <f>O45/SUMIF(A:A,A45,O:O)</f>
-        <v>1.7985914201844831E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>4.6702041812356132E-3</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>61</v>
+      </c>
+      <c r="R45">
+        <f>SUM(P44:P59)/SUM(P27:P59)</f>
+        <v>0.99527431939280187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -2624,19 +2877,19 @@
         <v>0</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="8"/>
-        <v>-36</v>
+        <f t="shared" si="12"/>
+        <v>-4.9494778870064486</v>
       </c>
       <c r="O46" s="12">
-        <f t="shared" si="9"/>
-        <v>2.3195228302435691E-16</v>
+        <f t="shared" si="13"/>
+        <v>7.0871082345363096E-3</v>
       </c>
       <c r="P46" s="5">
-        <f>O46/SUMIF(A:A,A46,O:O)</f>
-        <v>2.0240479971902118E-9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>6.9711908136891676E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
@@ -2677,19 +2930,19 @@
         <v>0</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="8"/>
-        <v>-36</v>
+        <f t="shared" si="12"/>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O47" s="13">
-        <f t="shared" si="9"/>
-        <v>2.3195228302435691E-16</v>
+        <f t="shared" si="13"/>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P47" s="4">
-        <f>O47/SUMIF(A:A,A47,O:O)</f>
-        <v>2.3195228302391979E-16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>4.7028328710416855E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
@@ -2730,19 +2983,19 @@
         <v>0</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O48" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="P48" s="18">
-        <f>O48/SUMIF(A:A,A48,O:O)</f>
-        <v>0.99999999999811551</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.99051619732417462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>39</v>
       </c>
@@ -2783,19 +3036,19 @@
         <v>0</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="8"/>
-        <v>-56</v>
+        <f t="shared" si="12"/>
+        <v>-10.299539040024317</v>
       </c>
       <c r="O49" s="13">
-        <f t="shared" si="9"/>
-        <v>4.7808928838854688E-25</v>
+        <f t="shared" si="13"/>
+        <v>3.3648602270256006E-5</v>
       </c>
       <c r="P49" s="4">
-        <f>O49/SUMIF(A:A,A49,O:O)</f>
-        <v>4.7808928838764588E-25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>3.3329485566007567E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>40</v>
       </c>
@@ -2836,19 +3089,19 @@
         <v>0</v>
       </c>
       <c r="N50" s="9">
-        <f t="shared" si="8"/>
-        <v>-9</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="O50" s="14">
-        <f t="shared" si="9"/>
-        <v>1.2340980408667956E-4</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="P50" s="20">
-        <f>O50/SUMIF(A:A,A50,O:O)</f>
-        <v>0.99998323987571769</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.98364390425388692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>40</v>
       </c>
@@ -2889,19 +3142,19 @@
         <v>0</v>
       </c>
       <c r="N51" s="9">
-        <f t="shared" si="8"/>
-        <v>-20</v>
+        <f t="shared" si="12"/>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O51" s="14">
-        <f t="shared" si="9"/>
-        <v>2.0611536224385579E-9</v>
+        <f t="shared" si="13"/>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P51" s="9">
-        <f>O51/SUMIF(A:A,A51,O:O)</f>
-        <v>1.6701420867664688E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>4.6702041812356132E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>40</v>
       </c>
@@ -2942,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="N52" s="9">
-        <f t="shared" si="8"/>
-        <v>-29</v>
+        <f t="shared" si="12"/>
+        <v>-4.9494778870064486</v>
       </c>
       <c r="O52" s="14">
-        <f t="shared" si="9"/>
-        <v>2.5436656473769228E-13</v>
+        <f t="shared" si="13"/>
+        <v>7.0871082345363096E-3</v>
       </c>
       <c r="P52" s="9">
-        <f>O52/SUMIF(A:A,A52,O:O)</f>
-        <v>2.0611190772476806E-9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>6.9711908136891676E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>41</v>
       </c>
@@ -2995,19 +3248,19 @@
         <v>0</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="8"/>
-        <v>-29</v>
+        <f t="shared" si="12"/>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O53" s="15">
-        <f t="shared" si="9"/>
-        <v>2.5436656473769228E-13</v>
+        <f t="shared" si="13"/>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P53" s="6">
-        <f>O53/SUMIF(A:A,A53,O:O)</f>
-        <v>2.543665647358495E-13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>4.7028328710416855E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>41</v>
       </c>
@@ -3048,19 +3301,19 @@
         <v>0</v>
       </c>
       <c r="N54" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O54" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="P54" s="21">
-        <f>O54/SUMIF(A:A,A54,O:O)</f>
-        <v>0.99999999999275535</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.99051619732417462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>41</v>
       </c>
@@ -3101,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="N55" s="6">
-        <f t="shared" si="8"/>
-        <v>-49</v>
+        <f t="shared" si="12"/>
+        <v>-10.299539040024317</v>
       </c>
       <c r="O55" s="15">
-        <f t="shared" si="9"/>
-        <v>5.2428856633634639E-22</v>
+        <f t="shared" si="13"/>
+        <v>3.3648602270256006E-5</v>
       </c>
       <c r="P55" s="6">
-        <f>O55/SUMIF(A:A,A55,O:O)</f>
-        <v>5.2428856633254813E-22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>3.3329485566007567E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>42</v>
       </c>
@@ -3154,19 +3407,19 @@
         <v>0</v>
       </c>
       <c r="N56" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O56" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="P56" s="22">
-        <f>O56/SUMIF(A:A,A56,O:O)</f>
-        <v>0.99999969202273276</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.99058215322832843</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>42</v>
       </c>
@@ -3207,19 +3460,19 @@
         <v>0</v>
       </c>
       <c r="N57" s="7">
-        <f t="shared" si="8"/>
-        <v>-20</v>
+        <f t="shared" si="12"/>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O57" s="16">
-        <f t="shared" si="9"/>
-        <v>2.0611536224385579E-9</v>
+        <f t="shared" si="13"/>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P57" s="7">
-        <f>O57/SUMIF(A:A,A57,O:O)</f>
-        <v>2.0611529876500981E-9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>4.7031460204832913E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>43</v>
       </c>
@@ -3260,19 +3513,19 @@
         <v>0</v>
       </c>
       <c r="N58" s="8">
-        <f t="shared" si="8"/>
-        <v>-20</v>
+        <f t="shared" si="12"/>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O58" s="17">
-        <f t="shared" si="9"/>
-        <v>2.0611536224385579E-9</v>
+        <f t="shared" si="13"/>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P58" s="8">
-        <f>O58/SUMIF(A:A,A58,O:O)</f>
-        <v>2.0611529876500981E-9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>4.7031460204832913E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>43</v>
       </c>
@@ -3313,24 +3566,24 @@
         <v>0</v>
       </c>
       <c r="N59" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O59" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="P59" s="23">
-        <f>O59/SUMIF(A:A,A59,O:O)</f>
-        <v>0.99999969202273276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.99058215322832843</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>45</v>
       </c>
@@ -3353,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="29">
         <v>1</v>
@@ -3372,18 +3625,18 @@
       </c>
       <c r="N63" s="5">
         <f>-SUMPRODUCT(F63:M63,F$4:M$4)</f>
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="O63" s="12">
         <f>EXP(N63)</f>
-        <v>1.5229979744712629E-8</v>
+        <v>1</v>
       </c>
       <c r="P63" s="19">
-        <f>O63/SUMIF(A:A,A63,O:O)</f>
-        <v>2.4726211056631639E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" ref="P63:P78" si="14">O63/SUMIF(A:A,A63,O:O)</f>
+        <v>0.98830345931592578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>45</v>
       </c>
@@ -3424,19 +3677,19 @@
         <v>0</v>
       </c>
       <c r="N64" s="5">
-        <f t="shared" ref="N64:N78" si="10">-SUMPRODUCT(F64:M64,F$4:M$4)</f>
-        <v>-12</v>
+        <f t="shared" ref="N64:N78" si="15">-SUMPRODUCT(F64:M64,F$4:M$4)</f>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" ref="O64:O78" si="11">EXP(N64)</f>
-        <v>6.1442123533282098E-6</v>
+        <f t="shared" ref="O64:O78" si="16">EXP(N64)</f>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P64" s="5">
-        <f>O64/SUMIF(A:A,A64,O:O)</f>
-        <v>0.99752654942236285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>4.692327099335673E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>45</v>
       </c>
@@ -3459,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="29">
         <v>0</v>
@@ -3477,19 +3730,19 @@
         <v>0</v>
       </c>
       <c r="N65" s="5">
-        <f t="shared" si="10"/>
-        <v>-26</v>
+        <f t="shared" si="15"/>
+        <v>-4.9494778870064486</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="11"/>
-        <v>5.1090890280633251E-12</v>
+        <f t="shared" si="16"/>
+        <v>7.0871082345363096E-3</v>
       </c>
       <c r="P65" s="5">
-        <f>O65/SUMIF(A:A,A65,O:O)</f>
-        <v>8.2947197391297937E-7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>7.0042135847386182E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>46</v>
       </c>
@@ -3512,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="31">
         <v>1</v>
@@ -3530,19 +3783,19 @@
         <v>0</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="10"/>
-        <v>-18</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="O66" s="13">
-        <f t="shared" si="11"/>
-        <v>1.5229979744712629E-8</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="P66" s="4">
-        <f>O66/SUMIF(A:A,A66,O:O)</f>
-        <v>2.4726211056631639E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0.98830345931592578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>46</v>
       </c>
@@ -3583,19 +3836,19 @@
         <v>0</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="10"/>
-        <v>-12</v>
+        <f t="shared" si="15"/>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O67" s="13">
-        <f t="shared" si="11"/>
-        <v>6.1442123533282098E-6</v>
+        <f t="shared" si="16"/>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P67" s="18">
-        <f>O67/SUMIF(A:A,A67,O:O)</f>
-        <v>0.99752654942236285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>4.692327099335673E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>46</v>
       </c>
@@ -3618,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="31">
         <v>0</v>
@@ -3636,19 +3889,19 @@
         <v>0</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="10"/>
-        <v>-26</v>
+        <f t="shared" si="15"/>
+        <v>-4.9494778870064486</v>
       </c>
       <c r="O68" s="13">
-        <f t="shared" si="11"/>
-        <v>5.1090890280633251E-12</v>
+        <f t="shared" si="16"/>
+        <v>7.0871082345363096E-3</v>
       </c>
       <c r="P68" s="4">
-        <f>O68/SUMIF(A:A,A68,O:O)</f>
-        <v>8.2947197391297937E-7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>7.0042135847386182E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>47</v>
       </c>
@@ -3689,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="N69" s="9">
-        <f t="shared" si="10"/>
-        <v>-11</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="O69" s="14">
-        <f t="shared" si="11"/>
-        <v>1.6701700790245659E-5</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="P69" s="20">
-        <f>O69/SUMIF(A:A,A69,O:O)</f>
-        <v>0.73087933571190999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0.98830345931592578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>47</v>
       </c>
@@ -3742,19 +3995,19 @@
         <v>0</v>
       </c>
       <c r="N70" s="9">
-        <f t="shared" si="10"/>
-        <v>-12</v>
+        <f t="shared" si="15"/>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O70" s="14">
-        <f t="shared" si="11"/>
-        <v>6.1442123533282098E-6</v>
+        <f t="shared" si="16"/>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P70" s="9">
-        <f>O70/SUMIF(A:A,A70,O:O)</f>
-        <v>0.26887548158545244</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>4.692327099335673E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>47</v>
       </c>
@@ -3795,19 +4048,19 @@
         <v>0</v>
       </c>
       <c r="N71" s="9">
-        <f t="shared" si="10"/>
-        <v>-19</v>
+        <f t="shared" si="15"/>
+        <v>-4.9494778870064486</v>
       </c>
       <c r="O71" s="14">
-        <f t="shared" si="11"/>
-        <v>5.6027964375372678E-9</v>
+        <f t="shared" si="16"/>
+        <v>7.0871082345363096E-3</v>
       </c>
       <c r="P71" s="9">
-        <f>O71/SUMIF(A:A,A71,O:O)</f>
-        <v>2.451827026375595E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>7.0042135847386182E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>48</v>
       </c>
@@ -3848,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="N72" s="6">
-        <f t="shared" si="10"/>
-        <v>-11</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="O72" s="15">
-        <f t="shared" si="11"/>
-        <v>1.6701700790245659E-5</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="P72" s="6">
-        <f>O72/SUMIF(A:A,A72,O:O)</f>
-        <v>0.73087933571190999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0.98830345931592578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>48</v>
       </c>
@@ -3901,19 +4154,19 @@
         <v>0</v>
       </c>
       <c r="N73" s="6">
-        <f t="shared" si="10"/>
-        <v>-12</v>
+        <f t="shared" si="15"/>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O73" s="15">
-        <f t="shared" si="11"/>
-        <v>6.1442123533282098E-6</v>
+        <f t="shared" si="16"/>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P73" s="21">
-        <f>O73/SUMIF(A:A,A73,O:O)</f>
-        <v>0.26887548158545244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>4.692327099335673E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>48</v>
       </c>
@@ -3954,19 +4207,19 @@
         <v>0</v>
       </c>
       <c r="N74" s="6">
-        <f t="shared" si="10"/>
-        <v>-19</v>
+        <f t="shared" si="15"/>
+        <v>-4.9494778870064486</v>
       </c>
       <c r="O74" s="15">
-        <f t="shared" si="11"/>
-        <v>5.6027964375372678E-9</v>
+        <f t="shared" si="16"/>
+        <v>7.0871082345363096E-3</v>
       </c>
       <c r="P74" s="6">
-        <f>O74/SUMIF(A:A,A74,O:O)</f>
-        <v>2.451827026375595E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>7.0042135847386182E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>49</v>
       </c>
@@ -4007,19 +4260,19 @@
         <v>0</v>
       </c>
       <c r="N75" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O75" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P75" s="22">
-        <f>O75/SUMIF(A:A,A75,O:O)</f>
-        <v>0.99995460213129761</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0.99527457501478933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>49</v>
       </c>
@@ -4060,19 +4313,19 @@
         <v>0</v>
       </c>
       <c r="N76" s="7">
-        <f t="shared" si="10"/>
-        <v>-10</v>
+        <f t="shared" si="15"/>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O76" s="16">
-        <f t="shared" si="11"/>
-        <v>4.5399929762484854E-5</v>
+        <f t="shared" si="16"/>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P76" s="7">
-        <f>O76/SUMIF(A:A,A76,O:O)</f>
-        <v>4.5397868702434395E-5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>4.7254249852107487E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>50</v>
       </c>
@@ -4113,19 +4366,19 @@
         <v>0</v>
       </c>
       <c r="N77" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O77" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P77" s="8">
-        <f>O77/SUMIF(A:A,A77,O:O)</f>
-        <v>0.99995460213129761</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>0.99527457501478933</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>50</v>
       </c>
@@ -4166,20 +4419,3374 @@
         <v>0</v>
       </c>
       <c r="N78" s="8">
-        <f t="shared" si="10"/>
-        <v>-10</v>
+        <f t="shared" si="15"/>
+        <v>-5.3500611530178688</v>
       </c>
       <c r="O78" s="17">
-        <f t="shared" si="11"/>
-        <v>4.5399929762484854E-5</v>
+        <f t="shared" si="16"/>
+        <v>4.7478606445266937E-3</v>
       </c>
       <c r="P78" s="23">
-        <f>O78/SUMIF(A:A,A78,O:O)</f>
-        <v>4.5397868702434395E-5</v>
+        <f t="shared" si="14"/>
+        <v>4.7254249852107487E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39A2387-03E9-534F-95FD-68C963A3881B}">
+  <dimension ref="A1:Q84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="26" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="26"/>
+    <col min="8" max="8" width="11.1640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="26"/>
+    <col min="10" max="11" width="9.1640625" style="26" customWidth="1"/>
+    <col min="12" max="13" width="8.83203125" style="26"/>
+    <col min="14" max="14" width="8.1640625" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="26">
+        <f>(F4-F2)*SQRT(2)/$D$2^2</f>
+        <v>6.9996187544702493E-2</v>
+      </c>
+      <c r="G1" s="26">
+        <f t="shared" ref="G1:M1" si="0">(G4-G2)*SQRT(2)/$D$2^2</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I1" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J1" s="26">
+        <f t="shared" si="0"/>
+        <v>7.5661290421233096E-2</v>
+      </c>
+      <c r="K1" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L1" s="26">
+        <f t="shared" si="0"/>
+        <v>7.5661290421233096E-2</v>
+      </c>
+      <c r="M1" s="26">
+        <f t="shared" si="0"/>
+        <v>7.5693574502618155E-2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="26">
+        <v>10</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26">
+        <v>0</v>
+      </c>
+      <c r="K2" s="26">
+        <v>0</v>
+      </c>
+      <c r="L2" s="27">
+        <v>0</v>
+      </c>
+      <c r="M2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="26">
+        <f>(F4-F2)^2/2/$D$2</f>
+        <v>1.2248665676982911</v>
+      </c>
+      <c r="G3" s="26">
+        <f t="shared" ref="G3:M3" si="1">(G4-G2)^2/2/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4311577170515444</v>
+      </c>
+      <c r="K3" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4311577170515444</v>
+      </c>
+      <c r="M3" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4323793052458513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>5.3523439823050447</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.9494778870064486</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5.3500611530178688</v>
+      </c>
+      <c r="K4" s="3">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f>J4</f>
+        <v>5.3500611530178688</v>
+      </c>
+      <c r="M4" s="24">
+        <f>E4</f>
+        <v>5.3523439823050447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="58">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>10</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29">
+        <v>1</v>
+      </c>
+      <c r="M6" s="30">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="58">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>10</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>0</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0</v>
+      </c>
+      <c r="M7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="56">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>10</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0</v>
+      </c>
+      <c r="M8" s="30">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="57">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31">
+        <v>253</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
+        <v>0</v>
+      </c>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="57">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
+        <v>253</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1</v>
+      </c>
+      <c r="K10" s="31">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31">
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31">
+        <v>253</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+      <c r="H11" s="31">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
+        <v>1</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="33">
+        <v>1</v>
+      </c>
+      <c r="E12" s="33">
+        <v>70</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+      <c r="H12" s="33">
+        <v>1</v>
+      </c>
+      <c r="I12" s="33">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0</v>
+      </c>
+      <c r="L12" s="33">
+        <v>0</v>
+      </c>
+      <c r="M12" s="34">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33">
+        <v>70</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
+        <v>1</v>
+      </c>
+      <c r="J13" s="33">
+        <v>1</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33">
+        <v>1</v>
+      </c>
+      <c r="M13" s="34">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0</v>
+      </c>
+      <c r="E14" s="33">
+        <v>70</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33">
+        <v>1</v>
+      </c>
+      <c r="I14" s="33">
+        <v>0</v>
+      </c>
+      <c r="J14" s="33">
+        <v>0</v>
+      </c>
+      <c r="K14" s="33">
+        <v>1</v>
+      </c>
+      <c r="L14" s="33">
+        <v>0</v>
+      </c>
+      <c r="M14" s="34">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35">
+        <v>25</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35">
+        <v>1</v>
+      </c>
+      <c r="I15" s="35">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35">
+        <v>0</v>
+      </c>
+      <c r="K15" s="35">
+        <v>0</v>
+      </c>
+      <c r="L15" s="35">
+        <v>0</v>
+      </c>
+      <c r="M15" s="36">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35">
+        <v>25</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <v>1</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1</v>
+      </c>
+      <c r="K16" s="35">
+        <v>0</v>
+      </c>
+      <c r="L16" s="35">
+        <v>0</v>
+      </c>
+      <c r="M16" s="36">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>25</v>
+      </c>
+      <c r="F17" s="35">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35">
+        <v>0</v>
+      </c>
+      <c r="H17" s="35">
+        <v>1</v>
+      </c>
+      <c r="I17" s="35">
+        <v>0</v>
+      </c>
+      <c r="J17" s="35">
+        <v>0</v>
+      </c>
+      <c r="K17" s="35">
+        <v>1</v>
+      </c>
+      <c r="L17" s="35">
+        <v>0</v>
+      </c>
+      <c r="M17" s="36">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="37">
+        <v>1</v>
+      </c>
+      <c r="E18" s="37">
+        <v>97</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37">
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
+        <v>0</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0</v>
+      </c>
+      <c r="M18" s="38">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
+        <v>97</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37">
+        <v>1</v>
+      </c>
+      <c r="K19" s="37">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37">
+        <v>1</v>
+      </c>
+      <c r="M19" s="38">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="55">
+        <v>1</v>
+      </c>
+      <c r="E20" s="39">
+        <v>1</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0</v>
+      </c>
+      <c r="H20" s="39">
+        <v>0</v>
+      </c>
+      <c r="I20" s="39">
+        <v>0</v>
+      </c>
+      <c r="J20" s="39">
+        <v>0</v>
+      </c>
+      <c r="K20" s="39">
+        <v>0</v>
+      </c>
+      <c r="L20" s="39">
+        <v>0</v>
+      </c>
+      <c r="M20" s="40">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0</v>
+      </c>
+      <c r="E21" s="39">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0</v>
+      </c>
+      <c r="G21" s="39">
+        <v>0</v>
+      </c>
+      <c r="H21" s="39">
+        <v>0</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0</v>
+      </c>
+      <c r="J21" s="39">
+        <v>1</v>
+      </c>
+      <c r="K21" s="39">
+        <v>0</v>
+      </c>
+      <c r="L21" s="39">
+        <v>1</v>
+      </c>
+      <c r="M21" s="40">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="23" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+    </row>
+    <row r="25" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+    </row>
+    <row r="27" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="62"/>
+    </row>
+    <row r="28" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="Q28" s="63"/>
+    </row>
+    <row r="29" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="Q29" s="63"/>
+    </row>
+    <row r="30" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="Q30" s="63"/>
+    </row>
+    <row r="31" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="62"/>
+    </row>
+    <row r="32" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="Q32" s="63"/>
+    </row>
+    <row r="33" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="62"/>
+    </row>
+    <row r="34" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="Q34" s="63"/>
+    </row>
+    <row r="35" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="Q35" s="63"/>
+    </row>
+    <row r="36" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="Q36" s="63"/>
+    </row>
+    <row r="37" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="62"/>
+    </row>
+    <row r="38" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="Q38" s="63"/>
+    </row>
+    <row r="39" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="62"/>
+    </row>
+    <row r="40" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="Q40" s="63"/>
+    </row>
+    <row r="41" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="Q41" s="63"/>
+    </row>
+    <row r="42" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="62"/>
+    </row>
+    <row r="43" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+    </row>
+    <row r="44" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="P44" s="61"/>
+    </row>
+    <row r="45" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+    </row>
+    <row r="46" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+    </row>
+    <row r="47" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+    </row>
+    <row r="48" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="P48" s="61"/>
+    </row>
+    <row r="49" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+    </row>
+    <row r="50" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="P50" s="61"/>
+    </row>
+    <row r="51" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+    </row>
+    <row r="52" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+    </row>
+    <row r="53" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+    </row>
+    <row r="54" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="P54" s="61"/>
+    </row>
+    <row r="55" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+    </row>
+    <row r="56" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="P56" s="61"/>
+    </row>
+    <row r="57" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+    </row>
+    <row r="58" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+    </row>
+    <row r="59" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="P59" s="61"/>
+    </row>
+    <row r="60" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+    </row>
+    <row r="61" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+    </row>
+    <row r="62" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="64"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+    </row>
+    <row r="63" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="P63" s="61"/>
+    </row>
+    <row r="64" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+    </row>
+    <row r="65" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+    </row>
+    <row r="66" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+    </row>
+    <row r="67" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="60"/>
+      <c r="P67" s="61"/>
+    </row>
+    <row r="68" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="60"/>
+    </row>
+    <row r="69" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+      <c r="P69" s="61"/>
+    </row>
+    <row r="70" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="60"/>
+    </row>
+    <row r="71" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="60"/>
+    </row>
+    <row r="72" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+    </row>
+    <row r="73" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="P73" s="61"/>
+    </row>
+    <row r="74" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
+    </row>
+    <row r="75" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="P75" s="61"/>
+    </row>
+    <row r="76" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+    </row>
+    <row r="77" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+    </row>
+    <row r="78" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="60"/>
+      <c r="P78" s="61"/>
+    </row>
+    <row r="79" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+    </row>
+    <row r="80" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="60"/>
+    </row>
+    <row r="81" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+    </row>
+    <row r="82" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+    </row>
+    <row r="83" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+    </row>
+    <row r="84" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32010A3-3C42-2D48-9861-4EE69A54F4EA}">
+  <dimension ref="A1:Q84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="26" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="26"/>
+    <col min="8" max="8" width="11.1640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="26"/>
+    <col min="10" max="11" width="9.1640625" style="26" customWidth="1"/>
+    <col min="12" max="13" width="8.83203125" style="26"/>
+    <col min="14" max="14" width="8.1640625" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="26">
+        <f>(F4-F2)*SQRT(2)/$D$2^2</f>
+        <v>6.9996187544702493E-2</v>
+      </c>
+      <c r="G1" s="26">
+        <f t="shared" ref="G1:M1" si="0">(G4-G2)*SQRT(2)/$D$2^2</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I1" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J1" s="26">
+        <f t="shared" si="0"/>
+        <v>7.5661290421233096E-2</v>
+      </c>
+      <c r="K1" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L1" s="26">
+        <f t="shared" si="0"/>
+        <v>7.5661290421233096E-2</v>
+      </c>
+      <c r="M1" s="26">
+        <f t="shared" si="0"/>
+        <v>7.5693574502618155E-2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="26">
+        <v>10</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26">
+        <v>0</v>
+      </c>
+      <c r="K2" s="26">
+        <v>0</v>
+      </c>
+      <c r="L2" s="27">
+        <v>0</v>
+      </c>
+      <c r="M2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="26">
+        <f>(F4-F2)^2/2/$D$2</f>
+        <v>1.2248665676982911</v>
+      </c>
+      <c r="G3" s="26">
+        <f t="shared" ref="G3:M3" si="1">(G4-G2)^2/2/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4311577170515444</v>
+      </c>
+      <c r="K3" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4311577170515444</v>
+      </c>
+      <c r="M3" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4323793052458513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>5.3523439823050447</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.9494778870064486</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5.3500611530178688</v>
+      </c>
+      <c r="K4" s="3">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f>J4</f>
+        <v>5.3500611530178688</v>
+      </c>
+      <c r="M4" s="24">
+        <f>E4</f>
+        <v>5.3523439823050447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="58">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>10</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29">
+        <v>1</v>
+      </c>
+      <c r="M6" s="30">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="58">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>10</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>0</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0</v>
+      </c>
+      <c r="M7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="56">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>10</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0</v>
+      </c>
+      <c r="M8" s="30">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="57">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31">
+        <v>253</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
+        <v>0</v>
+      </c>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="57">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
+        <v>253</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1</v>
+      </c>
+      <c r="K10" s="31">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31">
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31">
+        <v>253</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+      <c r="H11" s="31">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
+        <v>1</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="33">
+        <v>1</v>
+      </c>
+      <c r="E12" s="33">
+        <v>70</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+      <c r="H12" s="33">
+        <v>1</v>
+      </c>
+      <c r="I12" s="33">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0</v>
+      </c>
+      <c r="L12" s="33">
+        <v>0</v>
+      </c>
+      <c r="M12" s="34">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33">
+        <v>70</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
+        <v>1</v>
+      </c>
+      <c r="J13" s="33">
+        <v>1</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33">
+        <v>1</v>
+      </c>
+      <c r="M13" s="34">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0</v>
+      </c>
+      <c r="E14" s="33">
+        <v>70</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33">
+        <v>1</v>
+      </c>
+      <c r="I14" s="33">
+        <v>0</v>
+      </c>
+      <c r="J14" s="33">
+        <v>0</v>
+      </c>
+      <c r="K14" s="33">
+        <v>1</v>
+      </c>
+      <c r="L14" s="33">
+        <v>0</v>
+      </c>
+      <c r="M14" s="34">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="65">
+        <v>1</v>
+      </c>
+      <c r="E15" s="35">
+        <v>25</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35">
+        <v>1</v>
+      </c>
+      <c r="I15" s="35">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35">
+        <v>0</v>
+      </c>
+      <c r="K15" s="35">
+        <v>0</v>
+      </c>
+      <c r="L15" s="35">
+        <v>0</v>
+      </c>
+      <c r="M15" s="36">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="65">
+        <v>0</v>
+      </c>
+      <c r="E16" s="35">
+        <v>25</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <v>1</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1</v>
+      </c>
+      <c r="K16" s="35">
+        <v>0</v>
+      </c>
+      <c r="L16" s="35">
+        <v>1</v>
+      </c>
+      <c r="M16" s="36">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>25</v>
+      </c>
+      <c r="F17" s="35">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35">
+        <v>0</v>
+      </c>
+      <c r="H17" s="35">
+        <v>1</v>
+      </c>
+      <c r="I17" s="35">
+        <v>0</v>
+      </c>
+      <c r="J17" s="35">
+        <v>0</v>
+      </c>
+      <c r="K17" s="35">
+        <v>1</v>
+      </c>
+      <c r="L17" s="35">
+        <v>0</v>
+      </c>
+      <c r="M17" s="36">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="37">
+        <v>1</v>
+      </c>
+      <c r="E18" s="37">
+        <v>97</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37">
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
+        <v>0</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0</v>
+      </c>
+      <c r="M18" s="38">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
+        <v>97</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37">
+        <v>1</v>
+      </c>
+      <c r="K19" s="37">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37">
+        <v>1</v>
+      </c>
+      <c r="M19" s="38">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="55">
+        <v>1</v>
+      </c>
+      <c r="E20" s="39">
+        <v>1</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0</v>
+      </c>
+      <c r="H20" s="39">
+        <v>0</v>
+      </c>
+      <c r="I20" s="39">
+        <v>0</v>
+      </c>
+      <c r="J20" s="39">
+        <v>0</v>
+      </c>
+      <c r="K20" s="39">
+        <v>0</v>
+      </c>
+      <c r="L20" s="39">
+        <v>0</v>
+      </c>
+      <c r="M20" s="40">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0</v>
+      </c>
+      <c r="E21" s="39">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0</v>
+      </c>
+      <c r="G21" s="39">
+        <v>0</v>
+      </c>
+      <c r="H21" s="39">
+        <v>0</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0</v>
+      </c>
+      <c r="J21" s="39">
+        <v>1</v>
+      </c>
+      <c r="K21" s="39">
+        <v>0</v>
+      </c>
+      <c r="L21" s="39">
+        <v>1</v>
+      </c>
+      <c r="M21" s="40">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="23" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+    </row>
+    <row r="25" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+    </row>
+    <row r="27" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="62"/>
+    </row>
+    <row r="28" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="Q28" s="63"/>
+    </row>
+    <row r="29" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="Q29" s="63"/>
+    </row>
+    <row r="30" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="Q30" s="63"/>
+    </row>
+    <row r="31" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="62"/>
+    </row>
+    <row r="32" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="Q32" s="63"/>
+    </row>
+    <row r="33" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="62"/>
+    </row>
+    <row r="34" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="Q34" s="63"/>
+    </row>
+    <row r="35" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="Q35" s="63"/>
+    </row>
+    <row r="36" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="Q36" s="63"/>
+    </row>
+    <row r="37" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="62"/>
+    </row>
+    <row r="38" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="Q38" s="63"/>
+    </row>
+    <row r="39" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="62"/>
+    </row>
+    <row r="40" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="Q40" s="63"/>
+    </row>
+    <row r="41" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="Q41" s="63"/>
+    </row>
+    <row r="42" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="62"/>
+    </row>
+    <row r="43" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+    </row>
+    <row r="44" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="P44" s="61"/>
+    </row>
+    <row r="45" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+    </row>
+    <row r="46" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+    </row>
+    <row r="47" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+    </row>
+    <row r="48" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="P48" s="61"/>
+    </row>
+    <row r="49" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+    </row>
+    <row r="50" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="P50" s="61"/>
+    </row>
+    <row r="51" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+    </row>
+    <row r="52" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+    </row>
+    <row r="53" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+    </row>
+    <row r="54" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="P54" s="61"/>
+    </row>
+    <row r="55" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+    </row>
+    <row r="56" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="P56" s="61"/>
+    </row>
+    <row r="57" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+    </row>
+    <row r="58" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+    </row>
+    <row r="59" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="P59" s="61"/>
+    </row>
+    <row r="60" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+    </row>
+    <row r="61" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+    </row>
+    <row r="62" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="64"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+    </row>
+    <row r="63" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="P63" s="61"/>
+    </row>
+    <row r="64" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+    </row>
+    <row r="65" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+    </row>
+    <row r="66" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+    </row>
+    <row r="67" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="60"/>
+      <c r="P67" s="61"/>
+    </row>
+    <row r="68" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="60"/>
+    </row>
+    <row r="69" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+      <c r="P69" s="61"/>
+    </row>
+    <row r="70" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="60"/>
+    </row>
+    <row r="71" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="60"/>
+    </row>
+    <row r="72" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+    </row>
+    <row r="73" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="P73" s="61"/>
+    </row>
+    <row r="74" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
+    </row>
+    <row r="75" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="P75" s="61"/>
+    </row>
+    <row r="76" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+    </row>
+    <row r="77" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+    </row>
+    <row r="78" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="60"/>
+      <c r="P78" s="61"/>
+    </row>
+    <row r="79" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+    </row>
+    <row r="80" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="60"/>
+    </row>
+    <row r="81" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+    </row>
+    <row r="82" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+    </row>
+    <row r="83" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+    </row>
+    <row r="84" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Combo/UseListed.xlsx
+++ b/Combo/UseListed.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairemoore-cantwell/GitHub/GSR_Learning/Combo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moore-cantwell\GSRs\Combo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2144A00-2C23-0348-ADED-FD8BE7797C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1DC299-19DC-45DA-8D8B-5ABB7681FD06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="460" windowWidth="26920" windowHeight="17540" activeTab="2" xr2:uid="{C71280F5-7DBC-4C24-95AC-02E4F36B038E}"/>
+    <workbookView xWindow="7500" yWindow="465" windowWidth="26925" windowHeight="17535" xr2:uid="{C71280F5-7DBC-4C24-95AC-02E4F36B038E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tagalog" sheetId="1" r:id="rId1"/>
     <sheet name="LessListing" sheetId="2" r:id="rId2"/>
     <sheet name="NoListing" sheetId="3" r:id="rId3"/>
+    <sheet name="manualExample" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Tagalog!$E$4:$J$4</definedName>
@@ -50,22 +51,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="70">
   <si>
     <t>input</t>
   </si>
@@ -251,6 +242,30 @@
   </si>
   <si>
     <t>p_listed:</t>
+  </si>
+  <si>
+    <t>lexeme(s)</t>
+  </si>
+  <si>
+    <t>/mot/+/a/</t>
+  </si>
+  <si>
+    <t>/moda/</t>
+  </si>
+  <si>
+    <t>mota</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>*VTV</t>
+  </si>
+  <si>
+    <t>Ident-Place</t>
+  </si>
+  <si>
+    <t>useListed</t>
   </si>
 </sst>
 </file>
@@ -816,34 +831,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8924EE5-736F-4A02-BD38-2BDE280E4D14}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="26720" ySplit="1980" topLeftCell="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="26715" ySplit="1980" topLeftCell="L25" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:L21"/>
+      <selection pane="bottomLeft" activeCell="S26" sqref="S26"/>
       <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="26" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="26" customWidth="1"/>
     <col min="7" max="7" width="9" style="26"/>
-    <col min="8" max="8" width="11.1640625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="26" customWidth="1"/>
     <col min="9" max="9" width="9" style="26"/>
-    <col min="10" max="11" width="9.1640625" style="26" customWidth="1"/>
+    <col min="10" max="11" width="9.125" style="26" customWidth="1"/>
     <col min="12" max="13" width="9" style="26"/>
-    <col min="14" max="14" width="8.1640625" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" customWidth="1"/>
+    <col min="15" max="15" width="3.375" customWidth="1"/>
+    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E1" s="26" t="s">
         <v>34</v>
       </c>
@@ -883,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>35</v>
       </c>
@@ -918,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E3" s="26" t="s">
         <v>37</v>
       </c>
@@ -955,7 +970,7 @@
         <v>1.4323793052458513</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -991,7 +1006,7 @@
         <v>5.3523439823050447</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1136,7 @@
       </c>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1178,7 @@
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +1220,7 @@
       </c>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1262,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1304,7 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1346,7 @@
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1388,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1415,7 +1430,7 @@
       </c>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -1457,7 +1472,7 @@
       </c>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1499,7 +1514,7 @@
       </c>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1541,7 +1556,7 @@
       </c>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
@@ -1583,7 +1598,7 @@
       </c>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -1625,7 +1640,7 @@
       </c>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1667,7 +1682,7 @@
       </c>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1724,7 @@
       </c>
       <c r="N21" s="11"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1728,7 +1743,7 @@
         <v>-0.35373305880646</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -1789,7 +1804,7 @@
         <v>-1.1765483337050827E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -1857,7 +1872,7 @@
         <v>0.29701234288978684</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
@@ -1925,7 +1940,7 @@
         <v>5.5195613070472316</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -1986,7 +2001,7 @@
         <v>-4.6675837959906108</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -2047,7 +2062,7 @@
         <v>-9.5065697761235624E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -2108,7 +2123,7 @@
         <v>-9.6170616829970594</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>40</v>
       </c>
@@ -2169,7 +2184,7 @@
         <v>-1.1765483337050827E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
@@ -2230,7 +2245,7 @@
         <v>-5.3618266363549196</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>40</v>
       </c>
@@ -2291,7 +2306,7 @@
         <v>-4.9612433703434995</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>41</v>
       </c>
@@ -2352,7 +2367,7 @@
         <v>-4.6675837959906108</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>41</v>
       </c>
@@ -2413,7 +2428,7 @@
         <v>-9.5065697761235624E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
@@ -2474,7 +2489,7 @@
         <v>-9.6170616829970594</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
@@ -2535,7 +2550,7 @@
         <v>-4.7366251033306994E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>42</v>
       </c>
@@ -2596,7 +2611,7 @@
         <v>-5.3547977781211999</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>43</v>
       </c>
@@ -2657,7 +2672,7 @@
         <v>-4.6675172108014804</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>43</v>
       </c>
@@ -2718,12 +2733,12 @@
         <v>-9.4399845869936726E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
@@ -2776,7 +2791,7 @@
         <v>0.98364390425388692</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>38</v>
       </c>
@@ -2836,7 +2851,7 @@
         <v>0.99527431939280187</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -2889,7 +2904,7 @@
         <v>6.9711908136891676E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
@@ -2942,7 +2957,7 @@
         <v>4.7028328710416855E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
@@ -2995,7 +3010,7 @@
         <v>0.99051619732417462</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>39</v>
       </c>
@@ -3048,7 +3063,7 @@
         <v>3.3329485566007567E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>40</v>
       </c>
@@ -3101,7 +3116,7 @@
         <v>0.98364390425388692</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>40</v>
       </c>
@@ -3154,7 +3169,7 @@
         <v>4.6702041812356132E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>40</v>
       </c>
@@ -3207,7 +3222,7 @@
         <v>6.9711908136891676E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>41</v>
       </c>
@@ -3260,7 +3275,7 @@
         <v>4.7028328710416855E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>41</v>
       </c>
@@ -3313,7 +3328,7 @@
         <v>0.99051619732417462</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>41</v>
       </c>
@@ -3366,7 +3381,7 @@
         <v>3.3329485566007567E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>42</v>
       </c>
@@ -3419,7 +3434,7 @@
         <v>0.99058215322832843</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>42</v>
       </c>
@@ -3472,7 +3487,7 @@
         <v>4.7031460204832913E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>43</v>
       </c>
@@ -3525,7 +3540,7 @@
         <v>4.7031460204832913E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>43</v>
       </c>
@@ -3578,12 +3593,12 @@
         <v>0.99058215322832843</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>45</v>
       </c>
@@ -3636,7 +3651,7 @@
         <v>0.98830345931592578</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>45</v>
       </c>
@@ -3689,7 +3704,7 @@
         <v>4.692327099335673E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>45</v>
       </c>
@@ -3742,7 +3757,7 @@
         <v>7.0042135847386182E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>46</v>
       </c>
@@ -3795,7 +3810,7 @@
         <v>0.98830345931592578</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>46</v>
       </c>
@@ -3848,7 +3863,7 @@
         <v>4.692327099335673E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>46</v>
       </c>
@@ -3901,7 +3916,7 @@
         <v>7.0042135847386182E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>47</v>
       </c>
@@ -3954,7 +3969,7 @@
         <v>0.98830345931592578</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>47</v>
       </c>
@@ -4007,7 +4022,7 @@
         <v>4.692327099335673E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>47</v>
       </c>
@@ -4060,7 +4075,7 @@
         <v>7.0042135847386182E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>48</v>
       </c>
@@ -4113,7 +4128,7 @@
         <v>0.98830345931592578</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>48</v>
       </c>
@@ -4166,7 +4181,7 @@
         <v>4.692327099335673E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>48</v>
       </c>
@@ -4219,7 +4234,7 @@
         <v>7.0042135847386182E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>49</v>
       </c>
@@ -4272,7 +4287,7 @@
         <v>0.99527457501478933</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>49</v>
       </c>
@@ -4325,7 +4340,7 @@
         <v>4.7254249852107487E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>50</v>
       </c>
@@ -4378,7 +4393,7 @@
         <v>0.99527457501478933</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>50</v>
       </c>
@@ -4445,26 +4460,26 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="26" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="26"/>
-    <col min="8" max="8" width="11.1640625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="26"/>
-    <col min="10" max="11" width="9.1640625" style="26" customWidth="1"/>
-    <col min="12" max="13" width="8.83203125" style="26"/>
-    <col min="14" max="14" width="8.1640625" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="26"/>
+    <col min="8" max="8" width="11.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="26"/>
+    <col min="10" max="11" width="9.125" style="26" customWidth="1"/>
+    <col min="12" max="13" width="8.875" style="26"/>
+    <col min="14" max="14" width="8.125" customWidth="1"/>
+    <col min="15" max="15" width="3.375" customWidth="1"/>
+    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E1" s="26" t="s">
         <v>34</v>
       </c>
@@ -4504,7 +4519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>35</v>
       </c>
@@ -4539,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E3" s="26" t="s">
         <v>37</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>1.4323793052458513</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4612,7 +4627,7 @@
         <v>5.3523439823050447</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4656,7 +4671,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="21.75" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -4700,7 +4715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="21.75" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -4742,7 +4757,7 @@
       </c>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -4784,7 +4799,7 @@
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -4826,7 +4841,7 @@
       </c>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -4868,7 +4883,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -4910,7 +4925,7 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
@@ -4952,7 +4967,7 @@
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -4994,7 +5009,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -5036,7 +5051,7 @@
       </c>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -5078,7 +5093,7 @@
       </c>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -5120,7 +5135,7 @@
       </c>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -5162,7 +5177,7 @@
       </c>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
@@ -5204,7 +5219,7 @@
       </c>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -5246,7 +5261,7 @@
       </c>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="21.75" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -5288,7 +5303,7 @@
       </c>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -5330,7 +5345,7 @@
       </c>
       <c r="N21" s="11"/>
     </row>
-    <row r="23" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -5342,7 +5357,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
       <c r="F24" s="60"/>
@@ -5354,7 +5369,7 @@
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
     </row>
-    <row r="25" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
@@ -5366,7 +5381,7 @@
       <c r="L25" s="60"/>
       <c r="M25" s="60"/>
     </row>
-    <row r="26" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
@@ -5378,7 +5393,7 @@
       <c r="L26" s="60"/>
       <c r="M26" s="60"/>
     </row>
-    <row r="27" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
       <c r="F27" s="60"/>
@@ -5392,7 +5407,7 @@
       <c r="P27" s="61"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
       <c r="F28" s="60"/>
@@ -5405,7 +5420,7 @@
       <c r="M28" s="60"/>
       <c r="Q28" s="63"/>
     </row>
-    <row r="29" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
@@ -5418,7 +5433,7 @@
       <c r="M29" s="60"/>
       <c r="Q29" s="63"/>
     </row>
-    <row r="30" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
       <c r="F30" s="60"/>
@@ -5431,7 +5446,7 @@
       <c r="M30" s="60"/>
       <c r="Q30" s="63"/>
     </row>
-    <row r="31" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60"/>
@@ -5445,7 +5460,7 @@
       <c r="P31" s="61"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60"/>
@@ -5458,7 +5473,7 @@
       <c r="M32" s="60"/>
       <c r="Q32" s="63"/>
     </row>
-    <row r="33" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
@@ -5472,7 +5487,7 @@
       <c r="P33" s="61"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
@@ -5485,7 +5500,7 @@
       <c r="M34" s="60"/>
       <c r="Q34" s="63"/>
     </row>
-    <row r="35" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D35" s="60"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
@@ -5498,7 +5513,7 @@
       <c r="M35" s="60"/>
       <c r="Q35" s="63"/>
     </row>
-    <row r="36" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
       <c r="F36" s="60"/>
@@ -5511,7 +5526,7 @@
       <c r="M36" s="60"/>
       <c r="Q36" s="63"/>
     </row>
-    <row r="37" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
@@ -5525,7 +5540,7 @@
       <c r="P37" s="61"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
       <c r="F38" s="60"/>
@@ -5538,7 +5553,7 @@
       <c r="M38" s="60"/>
       <c r="Q38" s="63"/>
     </row>
-    <row r="39" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
       <c r="F39" s="60"/>
@@ -5552,7 +5567,7 @@
       <c r="P39" s="61"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
@@ -5565,7 +5580,7 @@
       <c r="M40" s="60"/>
       <c r="Q40" s="63"/>
     </row>
-    <row r="41" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
       <c r="F41" s="60"/>
@@ -5578,7 +5593,7 @@
       <c r="M41" s="60"/>
       <c r="Q41" s="63"/>
     </row>
-    <row r="42" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
       <c r="F42" s="60"/>
@@ -5592,7 +5607,7 @@
       <c r="P42" s="61"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
       <c r="F43" s="60"/>
@@ -5604,7 +5619,7 @@
       <c r="L43" s="60"/>
       <c r="M43" s="60"/>
     </row>
-    <row r="44" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
       <c r="F44" s="60"/>
@@ -5617,7 +5632,7 @@
       <c r="M44" s="60"/>
       <c r="P44" s="61"/>
     </row>
-    <row r="45" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
       <c r="F45" s="60"/>
@@ -5629,7 +5644,7 @@
       <c r="L45" s="60"/>
       <c r="M45" s="60"/>
     </row>
-    <row r="46" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
       <c r="F46" s="60"/>
@@ -5641,7 +5656,7 @@
       <c r="L46" s="60"/>
       <c r="M46" s="60"/>
     </row>
-    <row r="47" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
       <c r="F47" s="60"/>
@@ -5653,7 +5668,7 @@
       <c r="L47" s="60"/>
       <c r="M47" s="60"/>
     </row>
-    <row r="48" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
       <c r="F48" s="60"/>
@@ -5666,7 +5681,7 @@
       <c r="M48" s="60"/>
       <c r="P48" s="61"/>
     </row>
-    <row r="49" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
@@ -5678,7 +5693,7 @@
       <c r="L49" s="60"/>
       <c r="M49" s="60"/>
     </row>
-    <row r="50" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
       <c r="F50" s="60"/>
@@ -5691,7 +5706,7 @@
       <c r="M50" s="60"/>
       <c r="P50" s="61"/>
     </row>
-    <row r="51" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
       <c r="F51" s="60"/>
@@ -5703,7 +5718,7 @@
       <c r="L51" s="60"/>
       <c r="M51" s="60"/>
     </row>
-    <row r="52" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
       <c r="F52" s="60"/>
@@ -5715,7 +5730,7 @@
       <c r="L52" s="60"/>
       <c r="M52" s="60"/>
     </row>
-    <row r="53" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
       <c r="F53" s="60"/>
@@ -5727,7 +5742,7 @@
       <c r="L53" s="60"/>
       <c r="M53" s="60"/>
     </row>
-    <row r="54" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
       <c r="F54" s="60"/>
@@ -5740,7 +5755,7 @@
       <c r="M54" s="60"/>
       <c r="P54" s="61"/>
     </row>
-    <row r="55" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D55" s="60"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
@@ -5752,7 +5767,7 @@
       <c r="L55" s="60"/>
       <c r="M55" s="60"/>
     </row>
-    <row r="56" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
       <c r="F56" s="60"/>
@@ -5765,7 +5780,7 @@
       <c r="M56" s="60"/>
       <c r="P56" s="61"/>
     </row>
-    <row r="57" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
       <c r="F57" s="60"/>
@@ -5777,7 +5792,7 @@
       <c r="L57" s="60"/>
       <c r="M57" s="60"/>
     </row>
-    <row r="58" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
       <c r="F58" s="60"/>
@@ -5789,7 +5804,7 @@
       <c r="L58" s="60"/>
       <c r="M58" s="60"/>
     </row>
-    <row r="59" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
       <c r="F59" s="60"/>
@@ -5802,7 +5817,7 @@
       <c r="M59" s="60"/>
       <c r="P59" s="61"/>
     </row>
-    <row r="60" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D60" s="60"/>
       <c r="E60" s="60"/>
       <c r="F60" s="60"/>
@@ -5814,7 +5829,7 @@
       <c r="L60" s="60"/>
       <c r="M60" s="60"/>
     </row>
-    <row r="61" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
       <c r="F61" s="60"/>
@@ -5826,7 +5841,7 @@
       <c r="L61" s="60"/>
       <c r="M61" s="60"/>
     </row>
-    <row r="62" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="64"/>
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
@@ -5839,7 +5854,7 @@
       <c r="L62" s="60"/>
       <c r="M62" s="60"/>
     </row>
-    <row r="63" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
       <c r="F63" s="60"/>
@@ -5852,7 +5867,7 @@
       <c r="M63" s="60"/>
       <c r="P63" s="61"/>
     </row>
-    <row r="64" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D64" s="60"/>
       <c r="E64" s="60"/>
       <c r="F64" s="60"/>
@@ -5864,7 +5879,7 @@
       <c r="L64" s="60"/>
       <c r="M64" s="60"/>
     </row>
-    <row r="65" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D65" s="60"/>
       <c r="E65" s="60"/>
       <c r="F65" s="60"/>
@@ -5876,7 +5891,7 @@
       <c r="L65" s="60"/>
       <c r="M65" s="60"/>
     </row>
-    <row r="66" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D66" s="60"/>
       <c r="E66" s="60"/>
       <c r="F66" s="60"/>
@@ -5888,7 +5903,7 @@
       <c r="L66" s="60"/>
       <c r="M66" s="60"/>
     </row>
-    <row r="67" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
       <c r="F67" s="60"/>
@@ -5901,7 +5916,7 @@
       <c r="M67" s="60"/>
       <c r="P67" s="61"/>
     </row>
-    <row r="68" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D68" s="60"/>
       <c r="E68" s="60"/>
       <c r="F68" s="60"/>
@@ -5913,7 +5928,7 @@
       <c r="L68" s="60"/>
       <c r="M68" s="60"/>
     </row>
-    <row r="69" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
       <c r="F69" s="60"/>
@@ -5926,7 +5941,7 @@
       <c r="M69" s="60"/>
       <c r="P69" s="61"/>
     </row>
-    <row r="70" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
       <c r="F70" s="60"/>
@@ -5938,7 +5953,7 @@
       <c r="L70" s="60"/>
       <c r="M70" s="60"/>
     </row>
-    <row r="71" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
       <c r="F71" s="60"/>
@@ -5950,7 +5965,7 @@
       <c r="L71" s="60"/>
       <c r="M71" s="60"/>
     </row>
-    <row r="72" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
       <c r="F72" s="60"/>
@@ -5962,7 +5977,7 @@
       <c r="L72" s="60"/>
       <c r="M72" s="60"/>
     </row>
-    <row r="73" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
       <c r="F73" s="60"/>
@@ -5975,7 +5990,7 @@
       <c r="M73" s="60"/>
       <c r="P73" s="61"/>
     </row>
-    <row r="74" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
       <c r="F74" s="60"/>
@@ -5987,7 +6002,7 @@
       <c r="L74" s="60"/>
       <c r="M74" s="60"/>
     </row>
-    <row r="75" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D75" s="60"/>
       <c r="E75" s="60"/>
       <c r="F75" s="60"/>
@@ -6000,7 +6015,7 @@
       <c r="M75" s="60"/>
       <c r="P75" s="61"/>
     </row>
-    <row r="76" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D76" s="60"/>
       <c r="E76" s="60"/>
       <c r="F76" s="60"/>
@@ -6012,7 +6027,7 @@
       <c r="L76" s="60"/>
       <c r="M76" s="60"/>
     </row>
-    <row r="77" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D77" s="60"/>
       <c r="E77" s="60"/>
       <c r="F77" s="60"/>
@@ -6024,7 +6039,7 @@
       <c r="L77" s="60"/>
       <c r="M77" s="60"/>
     </row>
-    <row r="78" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D78" s="60"/>
       <c r="E78" s="60"/>
       <c r="F78" s="60"/>
@@ -6037,7 +6052,7 @@
       <c r="M78" s="60"/>
       <c r="P78" s="61"/>
     </row>
-    <row r="79" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
       <c r="F79" s="60"/>
@@ -6049,7 +6064,7 @@
       <c r="L79" s="60"/>
       <c r="M79" s="60"/>
     </row>
-    <row r="80" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
       <c r="F80" s="60"/>
@@ -6061,7 +6076,7 @@
       <c r="L80" s="60"/>
       <c r="M80" s="60"/>
     </row>
-    <row r="81" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D81" s="60"/>
       <c r="E81" s="60"/>
       <c r="F81" s="60"/>
@@ -6073,7 +6088,7 @@
       <c r="L81" s="60"/>
       <c r="M81" s="60"/>
     </row>
-    <row r="82" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D82" s="60"/>
       <c r="E82" s="60"/>
       <c r="F82" s="60"/>
@@ -6085,7 +6100,7 @@
       <c r="L82" s="60"/>
       <c r="M82" s="60"/>
     </row>
-    <row r="83" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -6097,7 +6112,7 @@
       <c r="L83" s="24"/>
       <c r="M83" s="24"/>
     </row>
-    <row r="84" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -6118,30 +6133,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32010A3-3C42-2D48-9861-4EE69A54F4EA}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="26" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="26"/>
-    <col min="8" max="8" width="11.1640625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="26"/>
-    <col min="10" max="11" width="9.1640625" style="26" customWidth="1"/>
-    <col min="12" max="13" width="8.83203125" style="26"/>
-    <col min="14" max="14" width="8.1640625" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="26"/>
+    <col min="8" max="8" width="11.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="26"/>
+    <col min="10" max="11" width="9.125" style="26" customWidth="1"/>
+    <col min="12" max="13" width="8.875" style="26"/>
+    <col min="14" max="14" width="8.125" customWidth="1"/>
+    <col min="15" max="15" width="3.375" customWidth="1"/>
+    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E1" s="26" t="s">
         <v>34</v>
       </c>
@@ -6181,7 +6196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>35</v>
       </c>
@@ -6216,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E3" s="26" t="s">
         <v>37</v>
       </c>
@@ -6253,7 +6268,7 @@
         <v>1.4323793052458513</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6289,7 +6304,7 @@
         <v>5.3523439823050447</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6333,7 +6348,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="21.75" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -6377,7 +6392,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="21.75" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -6419,7 +6434,7 @@
       </c>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -6461,7 +6476,7 @@
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -6503,7 +6518,7 @@
       </c>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -6545,7 +6560,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -6587,7 +6602,7 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
@@ -6629,7 +6644,7 @@
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -6671,7 +6686,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -6713,7 +6728,7 @@
       </c>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="21.75" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -6755,7 +6770,7 @@
       </c>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="21.75" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -6797,7 +6812,7 @@
       </c>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -6839,7 +6854,7 @@
       </c>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
@@ -6881,7 +6896,7 @@
       </c>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -6923,7 +6938,7 @@
       </c>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="21.75" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -6965,7 +6980,7 @@
       </c>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -7007,7 +7022,7 @@
       </c>
       <c r="N21" s="11"/>
     </row>
-    <row r="23" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -7019,7 +7034,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
       <c r="F24" s="60"/>
@@ -7031,7 +7046,7 @@
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
     </row>
-    <row r="25" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
@@ -7043,7 +7058,7 @@
       <c r="L25" s="60"/>
       <c r="M25" s="60"/>
     </row>
-    <row r="26" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
@@ -7055,7 +7070,7 @@
       <c r="L26" s="60"/>
       <c r="M26" s="60"/>
     </row>
-    <row r="27" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
       <c r="F27" s="60"/>
@@ -7069,7 +7084,7 @@
       <c r="P27" s="61"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
       <c r="F28" s="60"/>
@@ -7082,7 +7097,7 @@
       <c r="M28" s="60"/>
       <c r="Q28" s="63"/>
     </row>
-    <row r="29" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
@@ -7095,7 +7110,7 @@
       <c r="M29" s="60"/>
       <c r="Q29" s="63"/>
     </row>
-    <row r="30" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
       <c r="F30" s="60"/>
@@ -7108,7 +7123,7 @@
       <c r="M30" s="60"/>
       <c r="Q30" s="63"/>
     </row>
-    <row r="31" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60"/>
@@ -7122,7 +7137,7 @@
       <c r="P31" s="61"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60"/>
@@ -7135,7 +7150,7 @@
       <c r="M32" s="60"/>
       <c r="Q32" s="63"/>
     </row>
-    <row r="33" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
@@ -7149,7 +7164,7 @@
       <c r="P33" s="61"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
@@ -7162,7 +7177,7 @@
       <c r="M34" s="60"/>
       <c r="Q34" s="63"/>
     </row>
-    <row r="35" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D35" s="60"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
@@ -7175,7 +7190,7 @@
       <c r="M35" s="60"/>
       <c r="Q35" s="63"/>
     </row>
-    <row r="36" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
       <c r="F36" s="60"/>
@@ -7188,7 +7203,7 @@
       <c r="M36" s="60"/>
       <c r="Q36" s="63"/>
     </row>
-    <row r="37" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
@@ -7202,7 +7217,7 @@
       <c r="P37" s="61"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
       <c r="F38" s="60"/>
@@ -7215,7 +7230,7 @@
       <c r="M38" s="60"/>
       <c r="Q38" s="63"/>
     </row>
-    <row r="39" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
       <c r="F39" s="60"/>
@@ -7229,7 +7244,7 @@
       <c r="P39" s="61"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
@@ -7242,7 +7257,7 @@
       <c r="M40" s="60"/>
       <c r="Q40" s="63"/>
     </row>
-    <row r="41" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
       <c r="F41" s="60"/>
@@ -7255,7 +7270,7 @@
       <c r="M41" s="60"/>
       <c r="Q41" s="63"/>
     </row>
-    <row r="42" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
       <c r="F42" s="60"/>
@@ -7269,7 +7284,7 @@
       <c r="P42" s="61"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
       <c r="F43" s="60"/>
@@ -7281,7 +7296,7 @@
       <c r="L43" s="60"/>
       <c r="M43" s="60"/>
     </row>
-    <row r="44" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
       <c r="F44" s="60"/>
@@ -7294,7 +7309,7 @@
       <c r="M44" s="60"/>
       <c r="P44" s="61"/>
     </row>
-    <row r="45" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
       <c r="F45" s="60"/>
@@ -7306,7 +7321,7 @@
       <c r="L45" s="60"/>
       <c r="M45" s="60"/>
     </row>
-    <row r="46" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
       <c r="F46" s="60"/>
@@ -7318,7 +7333,7 @@
       <c r="L46" s="60"/>
       <c r="M46" s="60"/>
     </row>
-    <row r="47" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
       <c r="F47" s="60"/>
@@ -7330,7 +7345,7 @@
       <c r="L47" s="60"/>
       <c r="M47" s="60"/>
     </row>
-    <row r="48" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:17" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
       <c r="F48" s="60"/>
@@ -7343,7 +7358,7 @@
       <c r="M48" s="60"/>
       <c r="P48" s="61"/>
     </row>
-    <row r="49" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
@@ -7355,7 +7370,7 @@
       <c r="L49" s="60"/>
       <c r="M49" s="60"/>
     </row>
-    <row r="50" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
       <c r="F50" s="60"/>
@@ -7368,7 +7383,7 @@
       <c r="M50" s="60"/>
       <c r="P50" s="61"/>
     </row>
-    <row r="51" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
       <c r="F51" s="60"/>
@@ -7380,7 +7395,7 @@
       <c r="L51" s="60"/>
       <c r="M51" s="60"/>
     </row>
-    <row r="52" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
       <c r="F52" s="60"/>
@@ -7392,7 +7407,7 @@
       <c r="L52" s="60"/>
       <c r="M52" s="60"/>
     </row>
-    <row r="53" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
       <c r="F53" s="60"/>
@@ -7404,7 +7419,7 @@
       <c r="L53" s="60"/>
       <c r="M53" s="60"/>
     </row>
-    <row r="54" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
       <c r="F54" s="60"/>
@@ -7417,7 +7432,7 @@
       <c r="M54" s="60"/>
       <c r="P54" s="61"/>
     </row>
-    <row r="55" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D55" s="60"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
@@ -7429,7 +7444,7 @@
       <c r="L55" s="60"/>
       <c r="M55" s="60"/>
     </row>
-    <row r="56" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
       <c r="F56" s="60"/>
@@ -7442,7 +7457,7 @@
       <c r="M56" s="60"/>
       <c r="P56" s="61"/>
     </row>
-    <row r="57" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
       <c r="F57" s="60"/>
@@ -7454,7 +7469,7 @@
       <c r="L57" s="60"/>
       <c r="M57" s="60"/>
     </row>
-    <row r="58" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
       <c r="F58" s="60"/>
@@ -7466,7 +7481,7 @@
       <c r="L58" s="60"/>
       <c r="M58" s="60"/>
     </row>
-    <row r="59" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
       <c r="F59" s="60"/>
@@ -7479,7 +7494,7 @@
       <c r="M59" s="60"/>
       <c r="P59" s="61"/>
     </row>
-    <row r="60" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D60" s="60"/>
       <c r="E60" s="60"/>
       <c r="F60" s="60"/>
@@ -7491,7 +7506,7 @@
       <c r="L60" s="60"/>
       <c r="M60" s="60"/>
     </row>
-    <row r="61" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
       <c r="F61" s="60"/>
@@ -7503,7 +7518,7 @@
       <c r="L61" s="60"/>
       <c r="M61" s="60"/>
     </row>
-    <row r="62" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="64"/>
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
@@ -7516,7 +7531,7 @@
       <c r="L62" s="60"/>
       <c r="M62" s="60"/>
     </row>
-    <row r="63" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
       <c r="F63" s="60"/>
@@ -7529,7 +7544,7 @@
       <c r="M63" s="60"/>
       <c r="P63" s="61"/>
     </row>
-    <row r="64" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D64" s="60"/>
       <c r="E64" s="60"/>
       <c r="F64" s="60"/>
@@ -7541,7 +7556,7 @@
       <c r="L64" s="60"/>
       <c r="M64" s="60"/>
     </row>
-    <row r="65" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D65" s="60"/>
       <c r="E65" s="60"/>
       <c r="F65" s="60"/>
@@ -7553,7 +7568,7 @@
       <c r="L65" s="60"/>
       <c r="M65" s="60"/>
     </row>
-    <row r="66" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D66" s="60"/>
       <c r="E66" s="60"/>
       <c r="F66" s="60"/>
@@ -7565,7 +7580,7 @@
       <c r="L66" s="60"/>
       <c r="M66" s="60"/>
     </row>
-    <row r="67" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
       <c r="F67" s="60"/>
@@ -7578,7 +7593,7 @@
       <c r="M67" s="60"/>
       <c r="P67" s="61"/>
     </row>
-    <row r="68" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D68" s="60"/>
       <c r="E68" s="60"/>
       <c r="F68" s="60"/>
@@ -7590,7 +7605,7 @@
       <c r="L68" s="60"/>
       <c r="M68" s="60"/>
     </row>
-    <row r="69" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
       <c r="F69" s="60"/>
@@ -7603,7 +7618,7 @@
       <c r="M69" s="60"/>
       <c r="P69" s="61"/>
     </row>
-    <row r="70" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
       <c r="F70" s="60"/>
@@ -7615,7 +7630,7 @@
       <c r="L70" s="60"/>
       <c r="M70" s="60"/>
     </row>
-    <row r="71" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
       <c r="F71" s="60"/>
@@ -7627,7 +7642,7 @@
       <c r="L71" s="60"/>
       <c r="M71" s="60"/>
     </row>
-    <row r="72" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
       <c r="F72" s="60"/>
@@ -7639,7 +7654,7 @@
       <c r="L72" s="60"/>
       <c r="M72" s="60"/>
     </row>
-    <row r="73" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
       <c r="F73" s="60"/>
@@ -7652,7 +7667,7 @@
       <c r="M73" s="60"/>
       <c r="P73" s="61"/>
     </row>
-    <row r="74" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
       <c r="F74" s="60"/>
@@ -7664,7 +7679,7 @@
       <c r="L74" s="60"/>
       <c r="M74" s="60"/>
     </row>
-    <row r="75" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D75" s="60"/>
       <c r="E75" s="60"/>
       <c r="F75" s="60"/>
@@ -7677,7 +7692,7 @@
       <c r="M75" s="60"/>
       <c r="P75" s="61"/>
     </row>
-    <row r="76" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D76" s="60"/>
       <c r="E76" s="60"/>
       <c r="F76" s="60"/>
@@ -7689,7 +7704,7 @@
       <c r="L76" s="60"/>
       <c r="M76" s="60"/>
     </row>
-    <row r="77" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D77" s="60"/>
       <c r="E77" s="60"/>
       <c r="F77" s="60"/>
@@ -7701,7 +7716,7 @@
       <c r="L77" s="60"/>
       <c r="M77" s="60"/>
     </row>
-    <row r="78" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D78" s="60"/>
       <c r="E78" s="60"/>
       <c r="F78" s="60"/>
@@ -7714,7 +7729,7 @@
       <c r="M78" s="60"/>
       <c r="P78" s="61"/>
     </row>
-    <row r="79" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
       <c r="F79" s="60"/>
@@ -7726,7 +7741,7 @@
       <c r="L79" s="60"/>
       <c r="M79" s="60"/>
     </row>
-    <row r="80" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
       <c r="F80" s="60"/>
@@ -7738,7 +7753,7 @@
       <c r="L80" s="60"/>
       <c r="M80" s="60"/>
     </row>
-    <row r="81" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D81" s="60"/>
       <c r="E81" s="60"/>
       <c r="F81" s="60"/>
@@ -7750,7 +7765,7 @@
       <c r="L81" s="60"/>
       <c r="M81" s="60"/>
     </row>
-    <row r="82" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:13" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D82" s="60"/>
       <c r="E82" s="60"/>
       <c r="F82" s="60"/>
@@ -7762,7 +7777,7 @@
       <c r="L82" s="60"/>
       <c r="M82" s="60"/>
     </row>
-    <row r="83" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -7774,7 +7789,7 @@
       <c r="L83" s="24"/>
       <c r="M83" s="24"/>
     </row>
-    <row r="84" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -7789,4 +7804,327 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B0C6AC-BB49-4482-AEF6-AF2AF55783BE}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="26">
+        <f>(E4-E2)*SQRT(2)/$C$2^2</f>
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="F1" s="26">
+        <f t="shared" ref="F1:L1" si="0">(F4-F2)*SQRT(2)/$C$2^2</f>
+        <v>2.8284271247461901E-2</v>
+      </c>
+      <c r="G1" s="26">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="H1" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I1" s="26">
+        <f t="shared" si="0"/>
+        <v>7.5661290421233096E-2</v>
+      </c>
+      <c r="J1" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K1" s="26">
+        <f t="shared" si="0"/>
+        <v>7.5661290421233096E-2</v>
+      </c>
+      <c r="L1" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="26">
+        <v>10</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26">
+        <v>0</v>
+      </c>
+      <c r="K2" s="27">
+        <v>0</v>
+      </c>
+      <c r="L2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="26">
+        <f>(E4-E2)^2/2/$C$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="26">
+        <f t="shared" ref="F3:L3" si="1">(F4-F2)^2/2/$C$2</f>
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="26">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4311577170515444</v>
+      </c>
+      <c r="J3" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4311577170515444</v>
+      </c>
+      <c r="L3" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5.3500611530178688</v>
+      </c>
+      <c r="J4" s="3">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f>I4</f>
+        <v>5.3500611530178688</v>
+      </c>
+      <c r="L4" s="24">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>-SUMPRODUCT(E6:G6,E$4:G$4)</f>
+        <v>-2</v>
+      </c>
+      <c r="I6">
+        <f>EXP(H6)</f>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="J6">
+        <f>I6/SUM(I$6:I$9)</f>
+        <v>0.10959126317106233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>10</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H9" si="2">-SUMPRODUCT(E7:G7,E$4:G$4)</f>
+        <v>-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I9" si="3">EXP(H7)</f>
+        <v>4.9787068367863944E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J9" si="4">I7/SUM(I$6:I$9)</f>
+        <v>4.0316372652642873E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>4.9787068367863944E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>4.0316372652642873E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>10</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.80977599152365198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>